--- a/biology/Botanique/Rikugi-en/Rikugi-en.xlsx
+++ b/biology/Botanique/Rikugi-en/Rikugi-en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rikugi-en (六義園, Rikugien[1]?) est un parc de Tokyo à Bunkyō. Le nom « Rikugi » vient de l'idée des six éléments de la poésie waka (« en » signifie « parc » ou « jardin »). Le parc comprend un petit étang, des arbres et une colline. Le traditionnel jardin japonais à l'intérieur du parc est une attraction pour touristes.
+Rikugi-en (六義園, Rikugien?) est un parc de Tokyo à Bunkyō. Le nom « Rikugi » vient de l'idée des six éléments de la poésie waka (« en » signifie « parc » ou « jardin »). Le parc comprend un petit étang, des arbres et une colline. Le traditionnel jardin japonais à l'intérieur du parc est une attraction pour touristes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La construction du parc s'étendit de 1695 à 1702 et fut menée par Yanagisawa Yoshiyasu par autorisation du cinquième shōgun, Tokugawa Tsunayoshi. C'est un exemple typique d'un jardin de la période Edo. Il fut donné en 1938 à la municipalité de Tokyo. Le jardin a été distingué comme endroit spécial de beauté scénique (特別名勝, tokubetsu meishō?) par le gouvernement japonais en 1953[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La construction du parc s'étendit de 1695 à 1702 et fut menée par Yanagisawa Yoshiyasu par autorisation du cinquième shōgun, Tokugawa Tsunayoshi. C'est un exemple typique d'un jardin de la période Edo. Il fut donné en 1938 à la municipalité de Tokyo. Le jardin a été distingué comme endroit spécial de beauté scénique (特別名勝, tokubetsu meishō?) par le gouvernement japonais en 1953.
 </t>
         </is>
       </c>
